--- a/semantics/instructions.xlsx
+++ b/semantics/instructions.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elazar\workspace\playground\pythia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10770" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">גיליון1!$A$2:$L$116</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1281,7 +1277,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1630,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>19</v>
       </c>
@@ -1656,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20</v>
       </c>
@@ -1682,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1708,7 +1704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>23</v>
       </c>
@@ -1734,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>24</v>
       </c>
@@ -1760,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>25</v>
       </c>
@@ -1786,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1812,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>27</v>
       </c>
@@ -2070,7 +2066,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>62</v>
       </c>
@@ -2096,7 +2092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>63</v>
       </c>
@@ -2122,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>64</v>
       </c>
@@ -2148,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>65</v>
       </c>
@@ -2174,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>66</v>
       </c>
@@ -2448,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>81</v>
       </c>
@@ -2465,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>82</v>
       </c>
@@ -2571,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>88</v>
       </c>
@@ -2594,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>89</v>
       </c>
@@ -2946,7 +2942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>107</v>
       </c>
@@ -3297,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>121</v>
       </c>
@@ -3323,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>122</v>
       </c>
@@ -3400,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>130</v>
       </c>
@@ -3662,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>143</v>
       </c>
@@ -3908,7 +3904,7 @@
   <autoFilter ref="A2:L116">
     <filterColumn colId="1">
       <filters>
-        <filter val="Meta-Control"/>
+        <filter val="Binary"/>
       </filters>
     </filterColumn>
   </autoFilter>
